--- a/biology/Zoologie/Brabanter/Brabanter.xlsx
+++ b/biology/Zoologie/Brabanter/Brabanter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brabanter ou brabançonne hollandaise est une race de poule domestique originaire des pays flamands. Une variété naine existe depuis 1934.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une volaille légère, de taille et position moyenne, au port un peu relevé, à la huppe en forme de casque, avec une barbe et des favoris.
 </t>
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette race d'ornement est une vieille race néerlandaise[2], issue des ancêtres de la padoue. Elle ne doit pas être confondue avec la brabançonne belge. C'est une race devenue aujourd'hui extrêmement rare. Pratiquement éteinte dans les années 1920, elle a été reconstituée grâce à des sujets originaires d'Allemagne et à des apports de barbu hollandais. C'est une race reconnue par le British Poultry Standard.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette race d'ornement est une vieille race néerlandaise, issue des ancêtres de la padoue. Elle ne doit pas être confondue avec la brabançonne belge. C'est une race devenue aujourd'hui extrêmement rare. Pratiquement éteinte dans les années 1920, elle a été reconstituée grâce à des sujets originaires d'Allemagne et à des apports de barbu hollandais. C'est une race reconnue par le British Poultry Standard.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Standard officiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Masse idéale : Coq : 1,9 à 2,5 kg ; Poule : 1,5 à 2 kg[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Masse idéale : Coq : 1,9 à 2,5 kg ; Poule : 1,5 à 2 kg
 Crête : a cornes rudimentaire
 Oreillons : blancs, cachés par les favoris
 Couleur des yeux : miel
